--- a/biology/Botanique/Chlorococcum/Chlorococcum.xlsx
+++ b/biology/Botanique/Chlorococcum/Chlorococcum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorococcum est un genre d’algues vertes de la famille des Chlorococcaceae, décrit pour la première fois comme des cellules végétatives solitaires ou en groupes temporaires de forme indéfinie, jamais noyées dans la gélatine.
 Ce sont des cellules ellipsoïdales à sphériques avec des parois cellulaires lisses et de taille variable (Bhagavathy and Sumathi, 2011).
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 janvier 2021) :
 Chlorococcum acidum P.A.Archibald &amp; H.C.Bold, 1970
 Chlorococcum aegyptiacum P.A.Archibald, 1979
 Chlorococcum aerium (R.M.Brown &amp; Bold) Wanatabe &amp; Lewis, 2017
